--- a/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,77</t>
+          <t>0,83; 2,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,98</t>
+          <t>-0,44; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,36</t>
+          <t>-1,44; 0,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,55; 953,92</t>
+          <t>65,33; 901,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 165,29</t>
+          <t>-21,57; 164,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-83,72; 92,26</t>
+          <t>-83,13; 101,95</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,21</t>
+          <t>6,7; 10,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,93</t>
+          <t>4,74; 7,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,5</t>
+          <t>2,54; 4,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>226,35; 579,43</t>
+          <t>235,93; 567,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>149,94; 384,17</t>
+          <t>151,19; 375,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>231,25; 888,64</t>
+          <t>201,72; 832,46</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,2</t>
+          <t>6,3; 13,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,75</t>
+          <t>8,24; 16,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,87</t>
+          <t>2,45; 7,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>105,73; 540,29</t>
+          <t>117,68; 565,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>148,96; 679,08</t>
+          <t>153,03; 732,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>112,04; 916,67</t>
+          <t>100,01; 996,07</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,73; 6,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,07</t>
+          <t>3,83; 6,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,23</t>
+          <t>1,83; 3,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>191,88; 415,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>132,64; 292,06</t>
+          <t>127,3; 279,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>151,88; 455,63</t>
+          <t>146,44; 435,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,78</t>
+          <t>0,77; 2,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,01</t>
+          <t>-0,38; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,38</t>
+          <t>-1,36; 0,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,33; 901,66</t>
+          <t>67,63; 874,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 164,63</t>
+          <t>-19,66; 157,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-83,13; 101,95</t>
+          <t>-83,14; 94,18</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,15</t>
+          <t>6,76; 10,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,88</t>
+          <t>4,77; 7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,46</t>
+          <t>2,59; 4,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>235,93; 567,7</t>
+          <t>226,78; 575,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>151,19; 375,76</t>
+          <t>146,46; 363,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>201,72; 832,46</t>
+          <t>213,85; 848,34</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 13,56</t>
+          <t>6,05; 13,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 16,39</t>
+          <t>8,82; 17,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,13</t>
+          <t>2,35; 7,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>117,68; 565,32</t>
+          <t>110,49; 542,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>153,03; 732,71</t>
+          <t>160,64; 701,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>100,01; 996,07</t>
+          <t>92,68; 889,95</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 6,86</t>
+          <t>4,78; 6,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,0</t>
+          <t>4,02; 6,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,18</t>
+          <t>1,84; 3,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>191,88; 415,01</t>
+          <t>199,37; 414,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>127,3; 279,4</t>
+          <t>135,32; 296,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>146,44; 435,92</t>
+          <t>144,76; 445,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,67</t>
+          <t>0,83; 2,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,01</t>
+          <t>-0,39; 1,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,4</t>
+          <t>-1,3; 0,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67,63; 874,75</t>
+          <t>66,55; 953,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 157,85</t>
+          <t>-18,15; 165,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-83,14; 94,18</t>
+          <t>-83,72; 92,26</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,34</t>
+          <t>6,63; 10,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,9</t>
+          <t>4,88; 7,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,5</t>
+          <t>2,51; 4,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>226,78; 575,61</t>
+          <t>226,35; 579,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>146,46; 363,09</t>
+          <t>149,94; 384,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>213,85; 848,34</t>
+          <t>231,25; 888,64</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,4</t>
+          <t>5,97; 13,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 17,04</t>
+          <t>8,72; 16,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,31</t>
+          <t>2,51; 6,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>110,49; 542,77</t>
+          <t>105,73; 540,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>160,64; 701,43</t>
+          <t>148,96; 679,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,68; 889,95</t>
+          <t>112,04; 916,67</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,86</t>
+          <t>4,85; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,05</t>
+          <t>3,9; 6,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,27</t>
+          <t>1,86; 3,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>199,37; 414,44</t>
+          <t>198,07; 411,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>135,32; 296,18</t>
+          <t>132,64; 292,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>144,76; 445,13</t>
+          <t>151,88; 455,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,77</t>
+          <t>0,77; 2,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,98</t>
+          <t>-0,43; 1,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,36</t>
+          <t>-1,36; 0,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,55; 953,92</t>
+          <t>56,86; 845,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 165,29</t>
+          <t>-19,29; 159,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-83,72; 92,26</t>
+          <t>-82,2; 90,47</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,21</t>
+          <t>7,0; 10,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,93</t>
+          <t>4,73; 7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,5</t>
+          <t>2,61; 4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>226,35; 579,43</t>
+          <t>242,85; 587,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>149,94; 384,17</t>
+          <t>150,01; 366,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>231,25; 888,64</t>
+          <t>210,58; 831,57</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,2</t>
+          <t>6,23; 13,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,75</t>
+          <t>8,48; 16,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,87</t>
+          <t>2,49; 6,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>105,73; 540,29</t>
+          <t>115,55; 526,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>148,96; 679,08</t>
+          <t>150,16; 729,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>112,04; 916,67</t>
+          <t>101,39; 921,64</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,8; 6,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,07</t>
+          <t>3,83; 6,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,23</t>
+          <t>1,81; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>196,86; 418,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>132,64; 292,06</t>
+          <t>132,2; 278,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>151,88; 455,63</t>
+          <t>144,77; 447,58</t>
         </is>
       </c>
     </row>
